--- a/data/trans_camb/P57_AF_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 6,04</t>
+          <t>-7,74; 5,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 15,35</t>
+          <t>2,99; 15,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,41; -1,72</t>
+          <t>-13,71; -0,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 15,52</t>
+          <t>-0,03; 15,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,36; 24,33</t>
+          <t>9,4; 25,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,04; -1,59</t>
+          <t>-16,06; -2,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 7,86</t>
+          <t>-2,41; 7,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,48; 17,16</t>
+          <t>7,46; 17,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,37; -3,77</t>
+          <t>-13,26; -4,07</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 10,9</t>
+          <t>-12,39; 10,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,76; 27,59</t>
+          <t>4,84; 28,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,02; -3,04</t>
+          <t>-22,27; -1,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 31,52</t>
+          <t>-0,05; 31,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,94; 50,18</t>
+          <t>16,73; 53,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,48; -3,37</t>
+          <t>-27,44; -4,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 14,63</t>
+          <t>-4,13; 14,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,63; 31,52</t>
+          <t>13,17; 32,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-22,37; -6,88</t>
+          <t>-22,29; -7,37</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 14,21</t>
+          <t>-1,22; 14,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,18; 22,84</t>
+          <t>8,21; 23,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 9,22</t>
+          <t>-5,15; 9,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 14,51</t>
+          <t>-0,96; 14,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 17,95</t>
+          <t>3,81; 18,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 3,22</t>
+          <t>-9,57; 4,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 11,97</t>
+          <t>1,72; 12,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,07; 17,98</t>
+          <t>8,32; 18,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 4,68</t>
+          <t>-5,31; 4,98</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 28,3</t>
+          <t>-2,09; 28,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,31; 46,12</t>
+          <t>14,42; 46,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 18,54</t>
+          <t>-8,81; 18,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 26,43</t>
+          <t>-1,49; 25,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 32,22</t>
+          <t>6,01; 32,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 5,86</t>
+          <t>-15,31; 7,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 22,28</t>
+          <t>2,86; 22,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,71; 33,36</t>
+          <t>13,9; 33,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-9,09; 8,6</t>
+          <t>-9,04; 9,47</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 1,8</t>
+          <t>-9,56; 1,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,46; 16,96</t>
+          <t>5,16; 16,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-52,72; -5,68</t>
+          <t>-51,83; -5,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 10,07</t>
+          <t>-9,08; 10,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 24,27</t>
+          <t>3,76; 23,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 2,08</t>
+          <t>-16,61; 2,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 2,35</t>
+          <t>-7,85; 1,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,78; 16,3</t>
+          <t>6,92; 16,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-52,65; -6,03</t>
+          <t>-49,0; -5,94</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 2,9</t>
+          <t>-14,34; 2,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,02; 27,43</t>
+          <t>7,65; 26,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,41; -8,76</t>
+          <t>-80,11; -8,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 17,16</t>
+          <t>-12,78; 17,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,91; 42,03</t>
+          <t>5,16; 39,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,97; 3,27</t>
+          <t>-23,85; 3,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 3,72</t>
+          <t>-11,89; 3,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,17; 26,18</t>
+          <t>10,24; 26,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-77,95; -9,22</t>
+          <t>-74,15; -9,34</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 4,32</t>
+          <t>-3,74; 4,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,8; 15,47</t>
+          <t>7,42; 15,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 0,04</t>
+          <t>-9,13; -0,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 10,65</t>
+          <t>0,54; 10,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,97; 14,67</t>
+          <t>4,38; 14,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 17,27</t>
+          <t>-10,13; 18,79</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 5,43</t>
+          <t>-0,62; 5,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,44; 13,5</t>
+          <t>7,66; 13,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 10,01</t>
+          <t>-7,36; 10,14</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 7,0</t>
+          <t>-5,68; 7,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,8; 25,16</t>
+          <t>11,16; 24,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-13,81; 0,06</t>
+          <t>-13,88; -0,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,33; 17,12</t>
+          <t>0,81; 16,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,32; 23,72</t>
+          <t>6,47; 22,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,14; 28,18</t>
+          <t>-15,29; 29,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 8,6</t>
+          <t>-0,93; 9,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,37; 21,64</t>
+          <t>11,74; 21,64</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 16,11</t>
+          <t>-11,45; 16,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 11,32</t>
+          <t>-2,34; 11,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,9; 20,91</t>
+          <t>9,06; 21,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 7,33</t>
+          <t>-8,09; 7,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 8,96</t>
+          <t>-1,87; 8,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,22; 19,58</t>
+          <t>9,38; 19,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-23,66; -1,29</t>
+          <t>-26,16; -1,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 8,22</t>
+          <t>-0,11; 8,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10,43; 18,48</t>
+          <t>10,76; 18,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-19,23; -0,27</t>
+          <t>-16,56; -0,21</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 18,98</t>
+          <t>-3,41; 19,25</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>12,9; 35,91</t>
+          <t>13,52; 36,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 12,33</t>
+          <t>-11,92; 11,93</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 14,17</t>
+          <t>-2,65; 13,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>12,83; 30,94</t>
+          <t>13,62; 30,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,3; -2,0</t>
+          <t>-38,11; -2,35</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 13,31</t>
+          <t>-0,02; 13,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>15,32; 29,51</t>
+          <t>16,07; 29,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-28,18; -0,45</t>
+          <t>-25,19; -0,4</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 12,29</t>
+          <t>-3,82; 11,62</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>14,48; 29,46</t>
+          <t>14,62; 30,46</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-22,84; -0,54</t>
+          <t>-22,57; 0,4</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,46; 9,42</t>
+          <t>0,97; 8,8</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>14,79; 21,87</t>
+          <t>14,29; 21,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 4,8</t>
+          <t>-4,55; 4,7</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,13; 8,57</t>
+          <t>1,23; 8,43</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>15,26; 22,26</t>
+          <t>15,53; 22,13</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 1,37</t>
+          <t>-7,65; 1,59</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 27,88</t>
+          <t>-7,71; 26,97</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>27,42; 69,2</t>
+          <t>27,79; 70,14</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-46,17; -1,14</t>
+          <t>-45,43; 1,26</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2,37; 16,39</t>
+          <t>1,48; 15,38</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>24,46; 38,78</t>
+          <t>23,71; 38,35</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 8,37</t>
+          <t>-7,51; 8,2</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>1,99; 15,6</t>
+          <t>2,15; 15,31</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>26,21; 40,55</t>
+          <t>26,41; 40,53</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 2,46</t>
+          <t>-13,22; 2,9</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,66</t>
+          <t>-1,21; 4,03</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>10,75; 15,54</t>
+          <t>10,94; 15,56</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-19,45; -3,73</t>
+          <t>-21,87; -3,76</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,26; 7,88</t>
+          <t>3,08; 7,82</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>12,53; 16,83</t>
+          <t>12,48; 16,98</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 4,64</t>
+          <t>-7,12; 5,75</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,92; 5,14</t>
+          <t>1,8; 5,14</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>12,39; 15,62</t>
+          <t>12,35; 15,63</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-11,57; -1,95</t>
+          <t>-11,73; -1,79</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 6,14</t>
+          <t>-1,95; 6,75</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>17,29; 26,06</t>
+          <t>17,66; 26,19</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-31,53; -6,09</t>
+          <t>-35,11; -6,23</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>5,15; 13,26</t>
+          <t>4,96; 13,12</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>19,99; 28,03</t>
+          <t>19,82; 28,39</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 7,67</t>
+          <t>-11,43; 9,74</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>3,11; 8,57</t>
+          <t>2,94; 8,63</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>20,12; 26,08</t>
+          <t>19,92; 26,03</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-18,78; -3,27</t>
+          <t>-19,17; -2,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_AF_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
